--- a/apps/static/uploads/filtered_results_template_3.xlsx
+++ b/apps/static/uploads/filtered_results_template_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isiahw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF308AE-E603-4B06-8D7F-8BA9BD9E7BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3B2487-3C8E-48BA-9944-E054BFBAFFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>reg_no</t>
   </si>
@@ -53,7 +53,7 @@
     <t>subject</t>
   </si>
   <si>
-    <t>Mark</t>
+    <t>mark</t>
   </si>
   <si>
     <t>12min</t>
@@ -71,7 +71,7 @@
     <t>Primary 1</t>
   </si>
   <si>
-    <t>Term 2</t>
+    <t>Term 1</t>
   </si>
   <si>
     <t>BOT Exam</t>
@@ -80,7 +80,7 @@
     <t>2025</t>
   </si>
   <si>
-    <t>ART AND DESIGN</t>
+    <t>BAKING</t>
   </si>
   <si>
     <t>reg_nos</t>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>ART AND DESIGN, BAKING, COMPPREHENSION, COMPUTER, ENGLISH, LIBRARY, LITERACY A, LITERACY B, MATHEMATICS, MUSIC, PHYSICAL EDUCATION, READING, REGIUOS EDUCATION, Science, SEWING, SOCIAL STUDIES</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,13 +522,13 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
